--- a/Levantamento de dados/Preços.Lista de produtos.Analytics.xlsx
+++ b/Levantamento de dados/Preços.Lista de produtos.Analytics.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP8440P\Desktop\Plant.ai\Levantamento de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Preços" sheetId="1" r:id="rId1"/>
@@ -222,8 +222,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -557,11 +557,11 @@
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -9245,7 +9245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -9654,7 +9654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -9953,11 +9953,11 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <f ca="1">_xlfn.QUARTILE.INC(B24:E24,1)</f>
+        <f t="shared" ref="C24:C32" ca="1" si="0">_xlfn.QUARTILE.INC(B24:E24,1)</f>
         <v>16</v>
       </c>
       <c r="D24">
-        <f ca="1">_xlfn.QUARTILE.INC(B24:E24,3)</f>
+        <f t="shared" ref="D24:D32" ca="1" si="1">_xlfn.QUARTILE.INC(B24:E24,3)</f>
         <v>28</v>
       </c>
       <c r="E24">
@@ -9972,11 +9972,11 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <f ca="1">_xlfn.QUARTILE.INC(B25:E25,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
       <c r="D25">
-        <f ca="1">_xlfn.QUARTILE.INC(B25:E25,3)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
       <c r="E25">
@@ -9991,11 +9991,11 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <f ca="1">_xlfn.QUARTILE.INC(B26:E26,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
       <c r="D26">
-        <f ca="1">_xlfn.QUARTILE.INC(B26:E26,3)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
       <c r="E26">
@@ -10010,11 +10010,11 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <f ca="1">_xlfn.QUARTILE.INC(B27:E27,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
       <c r="D27">
-        <f ca="1">_xlfn.QUARTILE.INC(B27:E27,3)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
       <c r="E27">
@@ -10029,11 +10029,11 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <f ca="1">_xlfn.QUARTILE.INC(B28:E28,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
       <c r="D28">
-        <f ca="1">_xlfn.QUARTILE.INC(B28:E28,3)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
       <c r="E28">
@@ -10048,11 +10048,11 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <f ca="1">_xlfn.QUARTILE.INC(B29:E29,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
       <c r="D29">
-        <f ca="1">_xlfn.QUARTILE.INC(B29:E29,3)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
       <c r="E29">
@@ -10067,11 +10067,11 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <f ca="1">_xlfn.QUARTILE.INC(B30:E30,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
       <c r="D30">
-        <f ca="1">_xlfn.QUARTILE.INC(B30:E30,3)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
       <c r="E30">
@@ -10086,11 +10086,11 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <f ca="1">_xlfn.QUARTILE.INC(B31:E31,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
       <c r="D31">
-        <f ca="1">_xlfn.QUARTILE.INC(B31:E31,3)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
       <c r="E31">
@@ -10105,11 +10105,11 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <f ca="1">_xlfn.QUARTILE.INC(B32:E32,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
       <c r="D32">
-        <f ca="1">_xlfn.QUARTILE.INC(B32:E32,3)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
       <c r="E32">
@@ -10141,11 +10141,11 @@
         <v>9</v>
       </c>
       <c r="C43">
-        <f ca="1">_xlfn.QUARTILE.INC(B43:E43,1)</f>
+        <f t="shared" ref="C43:C51" ca="1" si="2">_xlfn.QUARTILE.INC(B43:E43,1)</f>
         <v>14.25</v>
       </c>
       <c r="D43">
-        <f ca="1">_xlfn.QUARTILE.INC(B43:E43,3)</f>
+        <f t="shared" ref="D43:D51" ca="1" si="3">_xlfn.QUARTILE.INC(B43:E43,3)</f>
         <v>24.75</v>
       </c>
       <c r="E43">
@@ -10160,11 +10160,11 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <f ca="1">_xlfn.QUARTILE.INC(B44:E44,1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>14.25</v>
       </c>
       <c r="D44">
-        <f ca="1">_xlfn.QUARTILE.INC(B44:E44,3)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>24.75</v>
       </c>
       <c r="E44">
@@ -10179,11 +10179,11 @@
         <v>9</v>
       </c>
       <c r="C45">
-        <f ca="1">_xlfn.QUARTILE.INC(B45:E45,1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>14.25</v>
       </c>
       <c r="D45">
-        <f ca="1">_xlfn.QUARTILE.INC(B45:E45,3)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>24.75</v>
       </c>
       <c r="E45">
@@ -10198,11 +10198,11 @@
         <v>9</v>
       </c>
       <c r="C46">
-        <f ca="1">_xlfn.QUARTILE.INC(B46:E46,1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>14.25</v>
       </c>
       <c r="D46">
-        <f ca="1">_xlfn.QUARTILE.INC(B46:E46,3)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>24.75</v>
       </c>
       <c r="E46">
@@ -10217,11 +10217,11 @@
         <v>9</v>
       </c>
       <c r="C47">
-        <f ca="1">_xlfn.QUARTILE.INC(B47:E47,1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>14.25</v>
       </c>
       <c r="D47">
-        <f ca="1">_xlfn.QUARTILE.INC(B47:E47,3)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>24.75</v>
       </c>
       <c r="E47">
@@ -10236,11 +10236,11 @@
         <v>9</v>
       </c>
       <c r="C48">
-        <f ca="1">_xlfn.QUARTILE.INC(B48:E48,1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>14.25</v>
       </c>
       <c r="D48">
-        <f ca="1">_xlfn.QUARTILE.INC(B48:E48,3)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>24.75</v>
       </c>
       <c r="E48">
@@ -10255,11 +10255,11 @@
         <v>9</v>
       </c>
       <c r="C49">
-        <f ca="1">_xlfn.QUARTILE.INC(B49:E49,1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>14.25</v>
       </c>
       <c r="D49">
-        <f ca="1">_xlfn.QUARTILE.INC(B49:E49,3)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>24.75</v>
       </c>
       <c r="E49">
@@ -10274,11 +10274,11 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <f ca="1">_xlfn.QUARTILE.INC(B50:E50,1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>14.25</v>
       </c>
       <c r="D50">
-        <f ca="1">_xlfn.QUARTILE.INC(B50:E50,3)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>24.75</v>
       </c>
       <c r="E50">
@@ -10293,11 +10293,11 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <f ca="1">_xlfn.QUARTILE.INC(B51:E51,1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>14.25</v>
       </c>
       <c r="D51">
-        <f ca="1">_xlfn.QUARTILE.INC(B51:E51,3)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>24.75</v>
       </c>
       <c r="E51">
@@ -10329,11 +10329,11 @@
         <v>18</v>
       </c>
       <c r="C60">
-        <f ca="1">_xlfn.QUARTILE.INC(B60:E60,1)</f>
+        <f t="shared" ref="C60:C68" ca="1" si="4">_xlfn.QUARTILE.INC(B60:E60,1)</f>
         <v>22.25</v>
       </c>
       <c r="D60">
-        <f ca="1">_xlfn.QUARTILE.INC(B60:E60,3)</f>
+        <f t="shared" ref="D60:D68" ca="1" si="5">_xlfn.QUARTILE.INC(B60:E60,3)</f>
         <v>30.75</v>
       </c>
       <c r="E60">
@@ -10348,11 +10348,11 @@
         <v>18</v>
       </c>
       <c r="C61">
-        <f ca="1">_xlfn.QUARTILE.INC(B61:E61,1)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>22.25</v>
       </c>
       <c r="D61">
-        <f ca="1">_xlfn.QUARTILE.INC(B61:E61,3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>30.75</v>
       </c>
       <c r="E61">
@@ -10367,11 +10367,11 @@
         <v>18</v>
       </c>
       <c r="C62">
-        <f ca="1">_xlfn.QUARTILE.INC(B62:E62,1)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>22.25</v>
       </c>
       <c r="D62">
-        <f ca="1">_xlfn.QUARTILE.INC(B62:E62,3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>30.75</v>
       </c>
       <c r="E62">
@@ -10386,11 +10386,11 @@
         <v>18</v>
       </c>
       <c r="C63">
-        <f ca="1">_xlfn.QUARTILE.INC(B63:E63,1)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>22.25</v>
       </c>
       <c r="D63">
-        <f ca="1">_xlfn.QUARTILE.INC(B63:E63,3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>30.75</v>
       </c>
       <c r="E63">
@@ -10405,11 +10405,11 @@
         <v>18</v>
       </c>
       <c r="C64">
-        <f ca="1">_xlfn.QUARTILE.INC(B64:E64,1)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>22.25</v>
       </c>
       <c r="D64">
-        <f ca="1">_xlfn.QUARTILE.INC(B64:E64,3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>30.75</v>
       </c>
       <c r="E64">
@@ -10424,11 +10424,11 @@
         <v>18</v>
       </c>
       <c r="C65">
-        <f ca="1">_xlfn.QUARTILE.INC(B65:E65,1)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>22.25</v>
       </c>
       <c r="D65">
-        <f ca="1">_xlfn.QUARTILE.INC(B65:E65,3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>30.75</v>
       </c>
       <c r="E65">
@@ -10443,11 +10443,11 @@
         <v>18</v>
       </c>
       <c r="C66">
-        <f ca="1">_xlfn.QUARTILE.INC(B66:E66,1)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>22.25</v>
       </c>
       <c r="D66">
-        <f ca="1">_xlfn.QUARTILE.INC(B66:E66,3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>30.75</v>
       </c>
       <c r="E66">
@@ -10462,11 +10462,11 @@
         <v>18</v>
       </c>
       <c r="C67">
-        <f ca="1">_xlfn.QUARTILE.INC(B67:E67,1)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>22.25</v>
       </c>
       <c r="D67">
-        <f ca="1">_xlfn.QUARTILE.INC(B67:E67,3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>30.75</v>
       </c>
       <c r="E67">
@@ -10481,11 +10481,11 @@
         <v>18</v>
       </c>
       <c r="C68">
-        <f ca="1">_xlfn.QUARTILE.INC(B68:E68,1)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>22.25</v>
       </c>
       <c r="D68">
-        <f ca="1">_xlfn.QUARTILE.INC(B68:E68,3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>30.75</v>
       </c>
       <c r="E68">
@@ -10517,11 +10517,11 @@
         <v>8</v>
       </c>
       <c r="C78">
-        <f ca="1">_xlfn.QUARTILE.INC(B78:E78,1)</f>
+        <f t="shared" ref="C78:C86" ca="1" si="6">_xlfn.QUARTILE.INC(B78:E78,1)</f>
         <v>12</v>
       </c>
       <c r="D78">
-        <f ca="1">_xlfn.QUARTILE.INC(B78:E78,3)</f>
+        <f t="shared" ref="D78:D86" ca="1" si="7">_xlfn.QUARTILE.INC(B78:E78,3)</f>
         <v>20</v>
       </c>
       <c r="E78">
@@ -10536,11 +10536,11 @@
         <v>8</v>
       </c>
       <c r="C79">
-        <f ca="1">_xlfn.QUARTILE.INC(B79:E79,1)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>12</v>
       </c>
       <c r="D79">
-        <f ca="1">_xlfn.QUARTILE.INC(B79:E79,3)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>20</v>
       </c>
       <c r="E79">
@@ -10555,11 +10555,11 @@
         <v>8</v>
       </c>
       <c r="C80">
-        <f ca="1">_xlfn.QUARTILE.INC(B80:E80,1)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>12</v>
       </c>
       <c r="D80">
-        <f ca="1">_xlfn.QUARTILE.INC(B80:E80,3)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>20</v>
       </c>
       <c r="E80">
@@ -10574,11 +10574,11 @@
         <v>8</v>
       </c>
       <c r="C81">
-        <f ca="1">_xlfn.QUARTILE.INC(B81:E81,1)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>12</v>
       </c>
       <c r="D81">
-        <f ca="1">_xlfn.QUARTILE.INC(B81:E81,3)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>20</v>
       </c>
       <c r="E81">
@@ -10593,11 +10593,11 @@
         <v>8</v>
       </c>
       <c r="C82">
-        <f ca="1">_xlfn.QUARTILE.INC(B82:E82,1)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>12</v>
       </c>
       <c r="D82">
-        <f ca="1">_xlfn.QUARTILE.INC(B82:E82,3)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>20</v>
       </c>
       <c r="E82">
@@ -10612,11 +10612,11 @@
         <v>8</v>
       </c>
       <c r="C83">
-        <f ca="1">_xlfn.QUARTILE.INC(B83:E83,1)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>12</v>
       </c>
       <c r="D83">
-        <f ca="1">_xlfn.QUARTILE.INC(B83:E83,3)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>20</v>
       </c>
       <c r="E83">
@@ -10631,11 +10631,11 @@
         <v>8</v>
       </c>
       <c r="C84">
-        <f ca="1">_xlfn.QUARTILE.INC(B84:E84,1)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>12</v>
       </c>
       <c r="D84">
-        <f ca="1">_xlfn.QUARTILE.INC(B84:E84,3)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>20</v>
       </c>
       <c r="E84">
@@ -10650,11 +10650,11 @@
         <v>8</v>
       </c>
       <c r="C85">
-        <f ca="1">_xlfn.QUARTILE.INC(B85:E85,1)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>12</v>
       </c>
       <c r="D85">
-        <f ca="1">_xlfn.QUARTILE.INC(B85:E85,3)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>20</v>
       </c>
       <c r="E85">
@@ -10669,11 +10669,11 @@
         <v>8</v>
       </c>
       <c r="C86">
-        <f ca="1">_xlfn.QUARTILE.INC(B86:E86,1)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>12</v>
       </c>
       <c r="D86">
-        <f ca="1">_xlfn.QUARTILE.INC(B86:E86,3)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>20</v>
       </c>
       <c r="E86">
@@ -10705,11 +10705,11 @@
         <v>15</v>
       </c>
       <c r="C94">
-        <f ca="1">_xlfn.QUARTILE.INC(B94:E94,1)</f>
+        <f t="shared" ref="C94:C102" ca="1" si="8">_xlfn.QUARTILE.INC(B94:E94,1)</f>
         <v>20</v>
       </c>
       <c r="D94">
-        <f ca="1">_xlfn.QUARTILE.INC(B94:E94,3)</f>
+        <f t="shared" ref="D94:D102" ca="1" si="9">_xlfn.QUARTILE.INC(B94:E94,3)</f>
         <v>30</v>
       </c>
       <c r="E94">
@@ -10724,11 +10724,11 @@
         <v>15</v>
       </c>
       <c r="C95">
-        <f ca="1">_xlfn.QUARTILE.INC(B95:E95,1)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>20</v>
       </c>
       <c r="D95">
-        <f ca="1">_xlfn.QUARTILE.INC(B95:E95,3)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>30</v>
       </c>
       <c r="E95">
@@ -10743,11 +10743,11 @@
         <v>15</v>
       </c>
       <c r="C96">
-        <f ca="1">_xlfn.QUARTILE.INC(B96:E96,1)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>20</v>
       </c>
       <c r="D96">
-        <f ca="1">_xlfn.QUARTILE.INC(B96:E96,3)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>30</v>
       </c>
       <c r="E96">
@@ -10762,11 +10762,11 @@
         <v>15</v>
       </c>
       <c r="C97">
-        <f ca="1">_xlfn.QUARTILE.INC(B97:E97,1)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>20</v>
       </c>
       <c r="D97">
-        <f ca="1">_xlfn.QUARTILE.INC(B97:E97,3)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>30</v>
       </c>
       <c r="E97">
@@ -10781,11 +10781,11 @@
         <v>15</v>
       </c>
       <c r="C98">
-        <f ca="1">_xlfn.QUARTILE.INC(B98:E98,1)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>20</v>
       </c>
       <c r="D98">
-        <f ca="1">_xlfn.QUARTILE.INC(B98:E98,3)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>30</v>
       </c>
       <c r="E98">
@@ -10800,11 +10800,11 @@
         <v>15</v>
       </c>
       <c r="C99">
-        <f ca="1">_xlfn.QUARTILE.INC(B99:E99,1)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>20</v>
       </c>
       <c r="D99">
-        <f ca="1">_xlfn.QUARTILE.INC(B99:E99,3)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>30</v>
       </c>
       <c r="E99">
@@ -10819,11 +10819,11 @@
         <v>15</v>
       </c>
       <c r="C100">
-        <f ca="1">_xlfn.QUARTILE.INC(B100:E100,1)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>20</v>
       </c>
       <c r="D100">
-        <f ca="1">_xlfn.QUARTILE.INC(B100:E100,3)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>30</v>
       </c>
       <c r="E100">
@@ -10838,11 +10838,11 @@
         <v>15</v>
       </c>
       <c r="C101">
-        <f ca="1">_xlfn.QUARTILE.INC(B101:E101,1)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>20</v>
       </c>
       <c r="D101">
-        <f ca="1">_xlfn.QUARTILE.INC(B101:E101,3)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>30</v>
       </c>
       <c r="E101">
@@ -10857,11 +10857,11 @@
         <v>15</v>
       </c>
       <c r="C102">
-        <f ca="1">_xlfn.QUARTILE.INC(B102:E102,1)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>20</v>
       </c>
       <c r="D102">
-        <f ca="1">_xlfn.QUARTILE.INC(B102:E102,3)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>30</v>
       </c>
       <c r="E102">

--- a/Levantamento de dados/Preços.Lista de produtos.Analytics.xlsx
+++ b/Levantamento de dados/Preços.Lista de produtos.Analytics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP8440P\Desktop\Plant.ai\Levantamento de dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\Plant.ai\Levantamento de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>Tipos de plantas</t>
   </si>
@@ -216,14 +216,29 @@
   <si>
     <t>Muito frio</t>
   </si>
+  <si>
+    <t>TOMATE</t>
+  </si>
+  <si>
+    <t>MORANGO</t>
+  </si>
+  <si>
+    <t>SALSA</t>
+  </si>
+  <si>
+    <t>PIMENTA</t>
+  </si>
+  <si>
+    <t>ORQUIDEA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -557,11 +572,11 @@
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3615,7 +3630,7 @@
               <a:rPr lang="pt-BR" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Temperatura (Salsinha)</a:t>
+              <a:t>Temperatura (Salsa)</a:t>
             </a:r>
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
@@ -9654,8 +9669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9717,6 +9732,9 @@
       <c r="F3" s="34">
         <v>34</v>
       </c>
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
@@ -9740,6 +9758,9 @@
       <c r="F4" s="34">
         <v>30</v>
       </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
@@ -9763,6 +9784,9 @@
       <c r="F5" s="34">
         <v>24</v>
       </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
@@ -9786,6 +9810,9 @@
       <c r="F6" s="34">
         <v>35</v>
       </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
@@ -9808,6 +9835,9 @@
       </c>
       <c r="F7" s="34">
         <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
